--- a/data/euro-ccp/euro-ccp-Q4-2015.xlsx
+++ b/data/euro-ccp/euro-ccp-Q4-2015.xlsx
@@ -612,10 +612,10 @@
         <v>37541836</v>
       </c>
       <c r="R2" t="n">
-        <v>82986327</v>
+        <v>83881525</v>
       </c>
       <c r="S2" t="n">
-        <v>293962091</v>
+        <v>294857289</v>
       </c>
       <c r="T2" t="n">
         <v>802068450</v>
